--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1381"/>
+  <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35473,10 +35473,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35507,10 +35505,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -35545,10 +35541,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35583,10 +35577,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1084">
@@ -35617,10 +35609,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35655,10 +35645,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -35693,10 +35681,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35731,10 +35717,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -35769,10 +35753,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35807,10 +35789,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35845,10 +35825,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35883,10 +35861,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35921,10 +35897,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35947,10 +35921,8 @@
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35977,10 +35949,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -36003,10 +35973,8 @@
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36033,10 +36001,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36071,10 +36037,8 @@
           <t>€7.8B</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -36101,10 +36065,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36139,10 +36101,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36165,10 +36125,8 @@
       <c r="E1100" t="inlineStr"/>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36199,10 +36157,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36237,10 +36193,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36275,10 +36229,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -36313,10 +36265,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1105">
@@ -36351,10 +36301,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36389,10 +36337,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36427,10 +36373,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -36465,10 +36409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36503,10 +36445,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36537,10 +36477,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36571,10 +36509,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36605,10 +36541,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36635,10 +36569,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36665,10 +36597,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36695,10 +36625,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36725,10 +36653,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36755,10 +36681,8 @@
       </c>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36789,10 +36713,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36823,10 +36745,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36861,10 +36781,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36899,10 +36817,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36937,10 +36853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36967,10 +36881,8 @@
       </c>
       <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36997,10 +36909,8 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -37027,10 +36937,8 @@
       </c>
       <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -37057,10 +36965,8 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
@@ -37087,10 +36993,8 @@
       </c>
       <c r="F1127" t="inlineStr"/>
       <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -37113,110 +37017,148 @@
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -37226,29 +37168,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37260,33 +37206,33 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37298,25 +37244,21 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E1135" t="inlineStr"/>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
@@ -37328,65 +37270,57 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37396,365 +37330,317 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1142" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F1143" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
           <t>2</t>
@@ -37764,71 +37650,71 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1148" t="inlineStr">
+      <c r="G1148" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr">
@@ -37840,29 +37726,29 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37874,31 +37760,35 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1151" t="inlineStr">
         <is>
           <t>3</t>
@@ -37908,107 +37798,91 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -38016,37 +37890,25 @@
       </c>
     </row>
     <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A1155" t="inlineStr"/>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -38056,95 +37918,71 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr"/>
+      <c r="H1156" t="inlineStr"/>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38154,21 +37992,25 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38180,317 +38022,305 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr"/>
+      <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1160" t="inlineStr"/>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1165" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
           <t>2</t>
@@ -38500,71 +38330,63 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1170" t="inlineStr"/>
       <c r="G1170" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1171" t="inlineStr">
@@ -38576,31 +38398,27 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38610,35 +38428,23 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1173" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38648,31 +38454,23 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38682,23 +38480,23 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1175" t="inlineStr"/>
@@ -38712,27 +38510,31 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -38740,21 +38542,25 @@
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr"/>
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1177" t="inlineStr"/>
@@ -38768,101 +38574,117 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>2.691%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38872,91 +38694,87 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A1183" t="inlineStr"/>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A1184" t="inlineStr"/>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A1185" t="inlineStr"/>
       <c r="B1185" t="inlineStr">
         <is>
           <t>CN</t>
@@ -38964,75 +38782,67 @@
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
       <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A1186" t="inlineStr"/>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1187" t="inlineStr"/>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
@@ -39042,35 +38852,27 @@
       </c>
     </row>
     <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1188" t="inlineStr"/>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1188" t="inlineStr">
@@ -39080,31 +38882,27 @@
       </c>
     </row>
     <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1189" t="inlineStr"/>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1189" t="inlineStr">
@@ -39116,93 +38914,73 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1190" t="inlineStr"/>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr"/>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1192" t="inlineStr">
@@ -39214,29 +38992,29 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
@@ -39248,23 +39026,23 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
@@ -39278,21 +39056,25 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
@@ -39304,21 +39086,25 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
       <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
@@ -39330,151 +39116,159 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39484,55 +39278,63 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
@@ -39544,31 +39346,27 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
           <t>3</t>
@@ -39576,19 +39374,27 @@
       </c>
     </row>
     <row r="1205">
-      <c r="A1205" t="inlineStr"/>
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
@@ -39598,21 +39404,25 @@
       </c>
     </row>
     <row r="1206">
-      <c r="A1206" t="inlineStr"/>
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
@@ -39624,75 +39434,87 @@
       </c>
     </row>
     <row r="1207">
-      <c r="A1207" t="inlineStr"/>
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
-      <c r="A1208" t="inlineStr"/>
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1209">
-      <c r="A1209" t="inlineStr"/>
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
@@ -39702,29 +39524,25 @@
       </c>
     </row>
     <row r="1210">
-      <c r="A1210" t="inlineStr"/>
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39732,29 +39550,29 @@
       </c>
     </row>
     <row r="1211">
-      <c r="A1211" t="inlineStr"/>
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39764,139 +39582,159 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -39906,27 +39744,31 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1217" t="inlineStr">
         <is>
           <t>3</t>
@@ -39936,27 +39778,31 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39966,159 +39812,135 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
       <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A1223" t="inlineStr"/>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40128,95 +39950,79 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr"/>
+      <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
+      <c r="H1224" t="inlineStr"/>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40226,7 +40032,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -40236,27 +40042,31 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -40266,87 +40076,99 @@
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -40356,15 +40178,11 @@
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
@@ -40376,23 +40194,31 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1232" t="inlineStr">
         <is>
           <t>3</t>
@@ -40402,23 +40228,23 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
@@ -40432,25 +40258,21 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -40462,99 +40284,79 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1236" t="inlineStr"/>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
         <is>
           <t>2</t>
@@ -40564,27 +40366,23 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
           <t>3</t>
@@ -40594,31 +40392,23 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1239" t="inlineStr"/>
       <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
           <t>3</t>
@@ -40628,31 +40418,23 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
           <t>3</t>
@@ -40662,7 +40444,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -40672,7 +40454,7 @@
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
@@ -40688,27 +40470,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40718,23 +40504,31 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40744,27 +40538,31 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1244" t="inlineStr">
         <is>
           <t>3</t>
@@ -40772,19 +40570,27 @@
       </c>
     </row>
     <row r="1245">
-      <c r="A1245" t="inlineStr"/>
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1245" t="inlineStr"/>
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
@@ -40796,145 +40602,125 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
-      <c r="C1246" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr"/>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr"/>
+      <c r="C1248" t="inlineStr"/>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1248" t="inlineStr"/>
+      <c r="H1248" t="inlineStr"/>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1250" t="inlineStr"/>
       <c r="F1250" t="inlineStr"/>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1250" t="inlineStr">
@@ -40946,91 +40732,91 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1252" t="inlineStr"/>
       <c r="G1252" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -41040,81 +40826,81 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
       <c r="G1255" t="inlineStr"/>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
@@ -41130,21 +40916,25 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41156,25 +40946,21 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
+      <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41186,47 +40972,59 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1260" t="inlineStr"/>
       <c r="G1260" t="inlineStr"/>
       <c r="H1260" t="inlineStr">
@@ -41238,17 +41036,17 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
@@ -41264,21 +41062,25 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
       <c r="H1262" t="inlineStr">
@@ -41290,23 +41092,31 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
           <t>3</t>
@@ -41316,23 +41126,23 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1264" t="inlineStr"/>
@@ -41350,29 +41160,29 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -41384,31 +41194,27 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
           <t>3</t>
@@ -41418,23 +41224,23 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1267" t="inlineStr"/>
@@ -41448,21 +41254,25 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>SAR72B</t>
+        </is>
+      </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
@@ -41474,21 +41284,25 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
@@ -41500,95 +41314,107 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -41597,72 +41423,60 @@
       <c r="G1273" t="inlineStr"/>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1274" t="inlineStr"/>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
         <is>
           <t>3</t>
@@ -41672,141 +41486,141 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
+      <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
@@ -41818,57 +41632,49 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
@@ -41882,21 +41688,25 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
@@ -41908,23 +41718,23 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1284" t="inlineStr"/>
@@ -41938,31 +41748,27 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1285" t="inlineStr"/>
       <c r="H1285" t="inlineStr">
         <is>
           <t>3</t>
@@ -41972,125 +41778,117 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1286" t="inlineStr"/>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr">
-        <is>
-          <t>SAR20.8B</t>
-        </is>
-      </c>
+      <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1289" t="inlineStr">
         <is>
           <t>3</t>
@@ -42100,55 +41898,47 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr">
-        <is>
-          <t>SAR72B</t>
-        </is>
-      </c>
+      <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
       <c r="H1291" t="inlineStr">
@@ -42160,53 +41950,49 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr"/>
@@ -42220,25 +42006,21 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr"/>
       <c r="H1294" t="inlineStr">
@@ -42250,17 +42032,17 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
@@ -42269,54 +42051,50 @@
       <c r="G1295" t="inlineStr"/>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr"/>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
@@ -42332,17 +42110,17 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
@@ -42358,25 +42136,21 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1299" t="inlineStr"/>
       <c r="F1299" t="inlineStr"/>
       <c r="G1299" t="inlineStr"/>
       <c r="H1299" t="inlineStr">
@@ -42388,85 +42162,73 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1300" t="inlineStr"/>
       <c r="F1300" t="inlineStr"/>
       <c r="G1300" t="inlineStr"/>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1301" t="inlineStr"/>
       <c r="F1301" t="inlineStr"/>
       <c r="G1301" t="inlineStr"/>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
       <c r="H1302" t="inlineStr">
@@ -42478,17 +42240,17 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
@@ -42504,25 +42266,21 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1304" t="inlineStr"/>
       <c r="F1304" t="inlineStr"/>
       <c r="G1304" t="inlineStr"/>
       <c r="H1304" t="inlineStr">
@@ -42534,25 +42292,21 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1305" t="inlineStr"/>
       <c r="F1305" t="inlineStr"/>
       <c r="G1305" t="inlineStr"/>
       <c r="H1305" t="inlineStr">
@@ -42564,23 +42318,23 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr"/>
@@ -42594,25 +42348,21 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1307" t="inlineStr"/>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
       <c r="H1307" t="inlineStr">
@@ -42624,17 +42374,17 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr"/>
@@ -42643,96 +42393,84 @@
       <c r="G1308" t="inlineStr"/>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1309" t="inlineStr"/>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1310" t="inlineStr"/>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1311" t="inlineStr"/>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1311" t="inlineStr"/>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>BRL 255.1B</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
@@ -42744,43 +42482,31 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr"/>
+      <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr"/>
       <c r="E1312" t="inlineStr"/>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1312" t="inlineStr"/>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr"/>
@@ -42796,7 +42522,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
@@ -42806,7 +42532,7 @@
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr"/>
@@ -42822,23 +42548,23 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1315" t="inlineStr"/>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1315" t="inlineStr"/>
@@ -42852,127 +42578,151 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1319" t="inlineStr"/>
       <c r="E1319" t="inlineStr"/>
       <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr"/>
       <c r="E1320" t="inlineStr"/>
       <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1320" t="inlineStr">
         <is>
           <t>3</t>
@@ -42982,23 +42732,31 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1321" t="inlineStr">
         <is>
           <t>3</t>
@@ -43008,23 +42766,31 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1322" t="inlineStr">
         <is>
           <t>3</t>
@@ -43034,99 +42800,115 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
       <c r="F1323" t="inlineStr"/>
       <c r="G1323" t="inlineStr"/>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr"/>
       <c r="H1326" t="inlineStr">
@@ -43138,21 +42920,25 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
       <c r="H1327" t="inlineStr">
@@ -43164,47 +42950,51 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr"/>
@@ -43213,28 +43003,32 @@
       <c r="G1329" t="inlineStr"/>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>18.55%</t>
+        </is>
+      </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
       <c r="H1330" t="inlineStr">
@@ -43246,119 +43040,155 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr"/>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1332">
-      <c r="A1332" t="inlineStr"/>
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr"/>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1333">
-      <c r="A1333" t="inlineStr"/>
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
       <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
+      <c r="G1333" t="inlineStr"/>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
       <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
       <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="H1335" t="inlineStr">
         <is>
           <t>3</t>
@@ -43368,23 +43198,31 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1336" t="inlineStr">
         <is>
           <t>3</t>
@@ -43394,23 +43232,23 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr"/>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr"/>
@@ -43424,25 +43262,21 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1338" t="inlineStr"/>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
       <c r="H1338" t="inlineStr">
@@ -43454,23 +43288,23 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr"/>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr"/>
@@ -43484,31 +43318,23 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1340" t="inlineStr"/>
       <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1340" t="inlineStr"/>
       <c r="H1340" t="inlineStr">
         <is>
           <t>1</t>
@@ -43518,27 +43344,23 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr"/>
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1341" t="inlineStr"/>
       <c r="H1341" t="inlineStr">
         <is>
           <t>2</t>
@@ -43548,211 +43370,203 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1342" t="inlineStr"/>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr"/>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1343" t="inlineStr"/>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1344" t="inlineStr"/>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr"/>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr"/>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr"/>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr"/>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr"/>
@@ -43766,23 +43580,23 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr"/>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr"/>
@@ -43796,57 +43610,65 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr"/>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1351" t="inlineStr">
         <is>
           <t>2</t>
@@ -43856,37 +43678,37 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr"/>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
@@ -43896,37 +43718,33 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
+      <c r="E1353" t="inlineStr"/>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr"/>
@@ -43936,71 +43754,71 @@
         </is>
       </c>
       <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
+      <c r="G1354" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr"/>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr"/>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1356" t="inlineStr"/>
       <c r="H1356" t="inlineStr">
         <is>
           <t>3</t>
@@ -44010,119 +43828,123 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1357" t="inlineStr"/>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr"/>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr">
-        <is>
-          <t>41.9</t>
-        </is>
-      </c>
+      <c r="E1359" t="inlineStr"/>
       <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
+      <c r="G1359" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr"/>
       <c r="H1360" t="inlineStr">
@@ -44134,73 +43956,77 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr"/>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr"/>
@@ -44209,32 +44035,28 @@
       <c r="G1363" t="inlineStr"/>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E1364" t="inlineStr"/>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
       <c r="H1364" t="inlineStr">
@@ -44246,27 +44068,35 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr"/>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1365" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="G1365" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="H1365" t="inlineStr">
         <is>
           <t>2</t>
@@ -44276,494 +44106,146 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1366" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr"/>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
+      <c r="G1367" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr"/>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1368" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="G1368" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr"/>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1369" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1369" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1370" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1370" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1371" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1371" t="inlineStr">
-        <is>
-          <t>FGV Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1372" t="inlineStr">
-        <is>
-          <t>CBI Business Optimism IndexQ1</t>
-        </is>
-      </c>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1373" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1374" t="inlineStr">
-        <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1375" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1375" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1375" t="inlineStr"/>
-      <c r="E1375" t="inlineStr"/>
-      <c r="F1375" t="inlineStr"/>
-      <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1376" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1376" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1377" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1377" t="inlineStr">
-        <is>
-          <t>Economic Activity MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1378" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1378" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1379" t="inlineStr">
-        <is>
-          <t>New Housing Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1380" t="inlineStr">
-        <is>
-          <t>New Housing Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1381" t="inlineStr">
-        <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1381" t="inlineStr">
         <is>
           <t>3</t>
         </is>
